--- a/output/LORELEI_0155_2000_1228_Gold_3-13-21.xlsx
+++ b/output/LORELEI_0155_2000_1228_Gold_3-13-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Desktop/AutoAspect/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B08D60E-BD0C-6F42-BE1A-9548E21A1B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11B3CE-D4C3-9141-BF40-CCB82EE53922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="25600" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-380" yWindow="500" windowWidth="25600" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
     <col min="2" max="2" width="38.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="3" customWidth="1"/>
   </cols>
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="160" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -949,7 +949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="220" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="140" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="160" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="160" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="140" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="100" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="140" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
